--- a/assets/projects_directory_main.xlsx
+++ b/assets/projects_directory_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SELFWORK_ALW\11_FLORINA_WEBSITE\fdutt3.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4204C859-A070-4A80-8D93-C5E541380EB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB119DCF-019D-4F4A-BE02-CF42F2147EB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="471">
   <si>
     <t>proj_id</t>
   </si>
@@ -2015,8 +2015,8 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,9 +2460,6 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>454</v>
-      </c>
       <c r="E12" t="s">
         <v>48</v>
       </c>
@@ -2744,6 +2741,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>454</v>
+      </c>
       <c r="D22" t="s">
         <v>379</v>
       </c>
@@ -2779,6 +2779,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>454</v>
+      </c>
       <c r="D23" t="s">
         <v>379</v>
       </c>
@@ -3279,6 +3282,9 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>454</v>
+      </c>
       <c r="D39" t="s">
         <v>379</v>
       </c>
@@ -3317,6 +3323,9 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>454</v>
+      </c>
       <c r="D40" t="s">
         <v>379</v>
       </c>
@@ -3346,6 +3355,9 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
       <c r="D41" t="s">
         <v>379</v>
       </c>
@@ -3643,9 +3655,6 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>454</v>
-      </c>
       <c r="E50" t="s">
         <v>198</v>
       </c>
@@ -3858,6 +3867,9 @@
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>454</v>
+      </c>
       <c r="E57" t="s">
         <v>237</v>
       </c>
@@ -4253,6 +4265,9 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="D70" t="s">
+        <v>379</v>
+      </c>
       <c r="E70" t="s">
         <v>391</v>
       </c>
@@ -4279,6 +4294,9 @@
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="D71" t="s">
+        <v>379</v>
+      </c>
       <c r="E71" t="s">
         <v>396</v>
       </c>
@@ -4334,6 +4352,9 @@
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="D73" t="s">
+        <v>379</v>
+      </c>
       <c r="E73" t="s">
         <v>406</v>
       </c>
@@ -4424,6 +4445,9 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="D76" t="s">
+        <v>379</v>
+      </c>
       <c r="E76" t="s">
         <v>421</v>
       </c>
@@ -4449,6 +4473,9 @@
     <row r="77" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>379</v>
       </c>
       <c r="E77" t="s">
         <v>425</v>

--- a/assets/projects_directory_main.xlsx
+++ b/assets/projects_directory_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SELFWORK_ALW\11_FLORINA_WEBSITE\fdutt3.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB119DCF-019D-4F4A-BE02-CF42F2147EB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F50080-2BF5-4D07-B847-44B7995700E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="461">
   <si>
     <t>proj_id</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Accepted as a full paper at Sigradi 2012</t>
   </si>
   <si>
-    <t>fabrication</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Category==Masterplanning | Ecodesign | Smart city==Client==Shanghai urban design bureau==Status==Competition Entry | Published in Masterplanning the Future 2012==Year==2012</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
     <t>Insdag Railway Station Competition</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Category==Modular Hotel | Temporary Shelter | Futuristic vision==Client==Aims Design Competition==Status==Shortlisted as a finalist==Year==2014</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>Shenyang 300M Towers</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>Category==School | Education | Smart learning==Client==Sejong National Model City Middle and High School, South Korea==Status==Design Entry==Year==2021</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>Pods Public Seating</t>
   </si>
   <si>
@@ -242,9 +230,6 @@
     <t>Category==Low-rise offices | Startup tech work spaces | Eco-green Smart Building==Client==Match Capital Investments, USA==Status==Design Entry==Year==2013</t>
   </si>
   <si>
-    <t>office</t>
-  </si>
-  <si>
     <t>super-furniture-graphics</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>international senior housing</t>
   </si>
   <si>
-    <t>residences</t>
-  </si>
-  <si>
     <t>Eco Adaptable Residence</t>
   </si>
   <si>
@@ -401,9 +383,6 @@
     <t>horticulture expo</t>
   </si>
   <si>
-    <t>exhibitions</t>
-  </si>
-  <si>
     <t>South Nanjing Urban Plan</t>
   </si>
   <si>
@@ -425,9 +404,6 @@
     <t>sports complex</t>
   </si>
   <si>
-    <t>sports</t>
-  </si>
-  <si>
     <t>Nantong Offices</t>
   </si>
   <si>
@@ -474,9 +450,6 @@
   </si>
   <si>
     <t>Category==Hotel | Retail | Dynamic Facade==Client==With W2 Architects, China==Status==Design Proposal==Year==2010</t>
-  </si>
-  <si>
-    <t>hotel</t>
   </si>
   <si>
     <t>IGBC Vision 2035</t>
@@ -1289,18 +1262,6 @@
   </si>
   <si>
     <t>Published in IJAC journal and CAADRIA conference 2012</t>
-  </si>
-  <si>
-    <t>collaborated</t>
-  </si>
-  <si>
-    <t>graphic_design</t>
-  </si>
-  <si>
-    <t>automated_analytics</t>
-  </si>
-  <si>
-    <t>highrise</t>
   </si>
   <si>
     <t>Category==Responsive surfaces | Intelligent Facades | Interactive tangible systems==Client== Graduate work (under Prof. Jenny Sabin and Dr. Peter Lloyd Jones), Upenn, USA==Status==Published research==Year==2012</t>
@@ -1485,9 +1446,6 @@
     <t>Category==Landscape design | Green scapes==Client==With IAPA LLC, China==Status==Design proposal==Year==2010</t>
   </si>
   <si>
-    <t>landscape</t>
-  </si>
-  <si>
     <t>green parks</t>
   </si>
   <si>
@@ -1595,6 +1553,18 @@
   </si>
   <si>
     <t>furniture art</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>analytics</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>urban-design</t>
   </si>
 </sst>
 </file>
@@ -2014,9 +1984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3C95C-A488-458A-ADD6-11372A458DEC}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2055,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2084,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2102,22 +2072,22 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J2">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="N2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2125,40 +2095,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="J3">
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="N3" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,37 +2136,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
       </c>
       <c r="J4">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N4" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,43 +2174,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J5">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N5" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2248,40 +2218,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
       </c>
       <c r="J6">
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,34 +2259,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
       </c>
       <c r="J7">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2324,31 +2294,31 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="N8" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,37 +2326,37 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>457</v>
       </c>
       <c r="N9" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,28 +2364,28 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="N10" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2423,37 +2393,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,25 +2431,25 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M12" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="N12" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,25 +2457,25 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="N13" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,28 +2483,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M14" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,34 +2512,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M15" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="N15" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,25 +2547,25 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N16" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,25 +2573,25 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M17" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="N17" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,25 +2599,25 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J18">
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,25 +2625,25 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J19">
         <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,31 +2651,31 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J20">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,28 +2683,28 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M21" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2742,37 +2712,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="J22">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,31 +2750,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J23">
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,25 +2782,25 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J24">
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,22 +2808,22 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2861,25 +2831,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,37 +2857,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K27" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,25 +2895,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2951,31 +2921,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J29">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,31 +2953,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J30">
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="N30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3015,34 +2985,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D31" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J31">
         <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>457</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3050,28 +3020,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="J32">
         <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3079,31 +3049,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I33" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J33">
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3111,37 +3081,37 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J34">
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3149,31 +3119,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E35" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J35">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,28 +3151,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J36">
         <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,31 +3180,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D37" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J37">
         <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>457</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3242,40 +3212,40 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D38" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J38">
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3283,40 +3253,40 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J39">
         <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,31 +3294,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J40">
         <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N40" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,40 +3326,40 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J41">
         <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3397,31 +3367,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J42">
         <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M42" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3429,28 +3399,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="J43">
         <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3458,28 +3428,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J44">
         <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N44" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,34 +3457,34 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J45">
         <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N45" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,40 +3492,40 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J46">
         <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N46" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3563,28 +3533,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J47">
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M47" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N47" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,31 +3562,31 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I48" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J48">
         <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N48" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3624,31 +3594,31 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="J49">
         <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,25 +3626,25 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J50">
         <v>16</v>
       </c>
       <c r="K50" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N50" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3682,25 +3652,25 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I51" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="J51">
         <v>16</v>
       </c>
       <c r="K51" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N51" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,25 +3678,25 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J52">
         <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M52" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,34 +3704,34 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D53" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J53">
         <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M53" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,31 +3739,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J54">
         <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L54" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M54" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N54" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,31 +3771,31 @@
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J55">
         <v>16</v>
       </c>
       <c r="K55" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L55" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M55" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="N55" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,34 +3803,34 @@
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I56" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="J56">
         <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N56" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,28 +3838,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J57">
         <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M57" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,31 +3867,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J58">
         <v>16</v>
       </c>
       <c r="K58" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="N58" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,28 +3899,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J59">
         <v>16</v>
       </c>
       <c r="K59" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M59" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="N59" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,28 +3928,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="J60">
         <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M60" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="N60" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,28 +3957,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J61">
         <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M61" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N61" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,25 +3986,25 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I62" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J62">
         <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M62" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N62" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4042,31 +4012,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E63" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I63" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J63">
         <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M63" t="s">
-        <v>125</v>
+        <v>457</v>
       </c>
       <c r="N63" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4074,31 +4044,31 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I64" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J64">
         <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M64" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4106,31 +4076,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I65" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J65">
         <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M65" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N65" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4138,28 +4108,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I66" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J66">
         <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M66" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,34 +4137,34 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D67" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E67" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F67" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="J67">
         <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L67" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M67" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N67" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,25 +4172,25 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F68" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J68">
         <v>16</v>
       </c>
       <c r="K68" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M68" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N68" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,37 +4198,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G69" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H69" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I69" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J69">
         <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M69" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N69" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,28 +4236,28 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E70" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70" t="s">
         <v>379</v>
       </c>
-      <c r="E70" t="s">
-        <v>391</v>
-      </c>
-      <c r="F70" t="s">
-        <v>392</v>
-      </c>
       <c r="I70" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="J70">
         <v>16</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M70" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N70" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4295,28 +4265,28 @@
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E71" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F71" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="J71">
         <v>16</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M71" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N71" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4324,28 +4294,28 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F72" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="I72" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="J72">
         <v>16</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="M72" t="s">
-        <v>20</v>
+        <v>460</v>
       </c>
       <c r="N72" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4353,28 +4323,28 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I73" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="J73">
         <v>16</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="N73" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4382,28 +4352,28 @@
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E74" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F74" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="I74" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="J74">
         <v>16</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M74" t="s">
-        <v>117</v>
+        <v>457</v>
       </c>
       <c r="N74" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4411,34 +4381,34 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E75" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G75" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H75" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="I75" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="J75">
         <v>16</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M75" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N75" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,28 +4416,28 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E76" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="I76" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="J76">
         <v>16</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M76" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="N76" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,28 +4445,28 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="I77" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="J77">
         <v>16</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M77" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="N77" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4504,31 +4474,31 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F78" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H78" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="I78" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="J78">
         <v>16</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="M78" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="N78" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4536,25 +4506,25 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F79" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I79" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="J79">
         <v>16</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="M79" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="N79" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,25 +4532,25 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F80" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="I80" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J80">
         <v>16</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M80" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="N80" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4588,25 +4558,25 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F81" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="I81" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J81">
         <v>16</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M81" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="N81" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/assets/projects_directory_main.xlsx
+++ b/assets/projects_directory_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SELFWORK_ALW\11_FLORINA_WEBSITE\fdutt3.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F50080-2BF5-4D07-B847-44B7995700E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15265023-8A43-4E97-8966-1445A77BC0BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_directory" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="462">
   <si>
     <t>proj_id</t>
   </si>
@@ -1565,6 +1565,9 @@
   </si>
   <si>
     <t>urban-design</t>
+  </si>
+  <si>
+    <t>urban-planning</t>
   </si>
 </sst>
 </file>
@@ -1984,9 +1987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3C95C-A488-458A-ADD6-11372A458DEC}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3525,7 @@
         <v>171</v>
       </c>
       <c r="M46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N46" t="s">
         <v>169</v>
@@ -3583,7 +3586,7 @@
         <v>344</v>
       </c>
       <c r="M48" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N48" t="s">
         <v>185</v>
@@ -3615,7 +3618,7 @@
         <v>345</v>
       </c>
       <c r="M49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N49" t="s">
         <v>187</v>
@@ -3651,6 +3654,9 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>440</v>
+      </c>
       <c r="E51" t="s">
         <v>192</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>346</v>
       </c>
       <c r="M62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N62" t="s">
         <v>251</v>
@@ -4434,7 +4440,7 @@
         <v>411</v>
       </c>
       <c r="M76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N76" t="s">
         <v>410</v>

--- a/assets/projects_directory_main.xlsx
+++ b/assets/projects_directory_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SELFWORK_ALW\11_FLORINA_WEBSITE\fdutt3.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15265023-8A43-4E97-8966-1445A77BC0BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E23EF-D521-453F-9693-2103E07361E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="478">
   <si>
     <t>proj_id</t>
   </si>
@@ -1568,6 +1568,92 @@
   </si>
   <si>
     <t>urban-planning</t>
+  </si>
+  <si>
+    <t>affect-in-cities</t>
+  </si>
+  <si>
+    <t>Citizens' Affect from Tweets</t>
+  </si>
+  <si>
+    <t>Category==Participatory design | Citizens' Affect Analysis | Opinion Mining==Client==PHD Research, Georgia Tech USA==Status==On-going Research==Year==2016-Current</t>
+  </si>
+  <si>
+    <t>text modeling</t>
+  </si>
+  <si>
+    <t>Presented at the ACSP 2019 Conference</t>
+  </si>
+  <si>
+    <t>Unveiling Urban Stress using Tweets</t>
+  </si>
+  <si>
+    <t>urban-stress-from-tweets</t>
+  </si>
+  <si>
+    <t>Presented at the ACSP 2020 Conference</t>
+  </si>
+  <si>
+    <t>Stress is a psychological reaction of
+individuals when they perceive the
+environmental demand exceeds their
+adaptive capacity. We hypothize that people are
+less stressed in
+areas with a higher degree of
+urbaneness. From neural netwok based modeling text data we found that people engage in de
+stress activities in
+neighborhoods with higher
+urban score.
+i.e. neighborhoods with higher
+building density , smaller block
+sizes, higher proportion of
+gridded streets, and high land
+use diversity. The output of this research can be useful in the
+development of audit tool / check list for planners and
+designers. It can provide cues for
+public awareness and it aims to
+encourage reduction in the mental health cost in cities
+through investment in public amenities.</t>
+  </si>
+  <si>
+    <t>quantifying urban stress</t>
+  </si>
+  <si>
+    <t>Cities are associated with higher rates
+of most mental health problems. Urban Planners can encourage
+designing urban spaces conducive to
+peoples' mental wellbeing. It has been studied that certain
+urban spaces, are responsible for
+mental wellbeing more than others. In this work, we predict 'urban activity' through linguistic analysis of Tweet text
+We also understand 'where' people express more positive affect while
+engaging in various urban activities.</t>
+  </si>
+  <si>
+    <t>i85-bridge-collapse-study</t>
+  </si>
+  <si>
+    <t>Social media mining during calamity</t>
+  </si>
+  <si>
+    <t>Presented at the ACSP 2018 Conference</t>
+  </si>
+  <si>
+    <t>A portion of the I-85 bridge in Atlanta, GA, USA (92FT) collapsed on 30th March 2017, leaving North and South bound traffic through GA disrupted. This research answered questions such as: (1) How did the collapse affect people?
+(2) Were they more stressed than usual
+during that period? (3) What were their coping mechanisms? (4) Were there differences in the
+sentiments expressed by locals vs. those from other areas? The findings emphasize the
+necessity of alternative transportation infrastructure to efficiently reroute traffic both local and from other areas going through
+Atlanta when a major interstate is dysfunctional. Bike paths and street design conducive to safe biking is a necessity to deal with
+travel disruptions. Social media analysis allows planners and policy makers to gauge people’s
+experience during crisis. Reduce cost and time for analysis. The analysis captures specific nuances such as
+people's perception and
+preference during a crisis incident. This is often overlooked when dealing with
+only traffic data. Most findings matched with the results available from traffic data . As such
+social media can be considered a reliable source of data when used as an
+alternative to enrich the finding of a crisis event.</t>
+  </si>
+  <si>
+    <t>large scale historic text analysis</t>
   </si>
 </sst>
 </file>
@@ -1985,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3C95C-A488-458A-ADD6-11372A458DEC}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,6 +3769,9 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>440</v>
+      </c>
       <c r="E52" t="s">
         <v>195</v>
       </c>
@@ -4583,6 +4672,93 @@
       </c>
       <c r="N81" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>463</v>
+      </c>
+      <c r="F82" t="s">
+        <v>462</v>
+      </c>
+      <c r="H82" t="s">
+        <v>466</v>
+      </c>
+      <c r="I82" t="s">
+        <v>464</v>
+      </c>
+      <c r="J82">
+        <v>16</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M82" t="s">
+        <v>461</v>
+      </c>
+      <c r="N82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>467</v>
+      </c>
+      <c r="F83" t="s">
+        <v>468</v>
+      </c>
+      <c r="H83" t="s">
+        <v>469</v>
+      </c>
+      <c r="I83" t="s">
+        <v>464</v>
+      </c>
+      <c r="J83">
+        <v>16</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M83" t="s">
+        <v>461</v>
+      </c>
+      <c r="N83" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>474</v>
+      </c>
+      <c r="F84" t="s">
+        <v>473</v>
+      </c>
+      <c r="H84" t="s">
+        <v>475</v>
+      </c>
+      <c r="I84" t="s">
+        <v>464</v>
+      </c>
+      <c r="J84">
+        <v>16</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="M84" t="s">
+        <v>461</v>
+      </c>
+      <c r="N84" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/assets/projects_directory_main.xlsx
+++ b/assets/projects_directory_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SELFWORK_ALW\11_FLORINA_WEBSITE\fdutt3.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E23EF-D521-453F-9693-2103E07361E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B17956-68DA-4716-949C-062C6C6BE2C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="16440" xr2:uid="{779BC7F7-762C-45B1-8B7F-93BB33AC0AAF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="478">
   <si>
     <t>proj_id</t>
   </si>
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,6 +2519,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>440</v>
+      </c>
       <c r="E12" t="s">
         <v>44</v>
       </c>
@@ -2635,6 +2638,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>440</v>
+      </c>
       <c r="E16" t="s">
         <v>57</v>
       </c>
@@ -2660,6 +2666,9 @@
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>440</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -2687,6 +2696,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>440</v>
+      </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
@@ -2713,6 +2725,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
       <c r="E19" t="s">
         <v>65</v>
       </c>
@@ -3714,6 +3729,9 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>440</v>
+      </c>
       <c r="E50" t="s">
         <v>189</v>
       </c>
@@ -4446,6 +4464,9 @@
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>440</v>
+      </c>
       <c r="D74" t="s">
         <v>370</v>
       </c>
@@ -4510,6 +4531,9 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>440</v>
+      </c>
       <c r="D76" t="s">
         <v>370</v>
       </c>
@@ -4626,6 +4650,9 @@
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>440</v>
+      </c>
       <c r="E80" t="s">
         <v>426</v>
       </c>
@@ -4651,6 +4678,9 @@
     <row r="81" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>440</v>
       </c>
       <c r="E81" t="s">
         <v>433</v>
